--- a/util/parse_table.xlsx
+++ b/util/parse_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ggran\school\semestre8\compiladores\parser\src\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13E9E08-B690-475B-AC36-A1E30FE64806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6248E7C-F962-41E8-9633-449161A0D17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{87588493-0751-4956-A941-E913A166F8C2}"/>
+    <workbookView xWindow="38280" yWindow="5115" windowWidth="29040" windowHeight="15840" xr2:uid="{87588493-0751-4956-A941-E913A166F8C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -884,8 +884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4246A4F-0C8B-4069-824C-DD62CF6E3540}">
   <dimension ref="B1:AF35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="AH31" sqref="AH31"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
